--- a/data/trans_bre/P35_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-10,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-7,35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-9,77</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-51,29%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-56,08%</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-68,28%</t>
+          <t>-50,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-54,94%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-67,03%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-52,3%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-74,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-67,52%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,71; -4,81</t>
+          <t>-11,68; -4,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -5,58</t>
+          <t>-12,36; -5,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,82; -7,7</t>
+          <t>-14,59; -7,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -7,15</t>
+          <t>-11,46; -3,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,23; -34,28</t>
+          <t>-12,5; -7,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,8; -39,19</t>
+          <t>-12,08; -6,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,2; -54,84</t>
+          <t>-63,49; -30,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,7; -61,87</t>
+          <t>-66,85; -38,13</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-76,85; -54,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-68,32; -29,58</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-82,6; -61,55</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-76,56; -52,95</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,75</t>
+          <t>-20,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,0</t>
+          <t>-18,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,22</t>
+          <t>-17,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-16,37</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-13,31</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-83,93%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,5%</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-85,21%</t>
+          <t>-84,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>-84,98%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-84,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-81,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>-91,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-72,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,26; -15,17</t>
+          <t>-26,08; -15,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,33; -15,11</t>
+          <t>-23,45; -15,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,22; -14,43</t>
+          <t>-21,57; -13,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -8,97</t>
+          <t>-20,64; -12,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,38; -74,57</t>
+          <t>-18,4; -8,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,31; -74,67</t>
+          <t>-12,72; -4,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,4; -76,22</t>
+          <t>-91,03; -75,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-97,91; -75,48</t>
+          <t>-90,93; -76,38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-90,04; -76,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,38; -70,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-97,92; -74,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-89,87; -39,73</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-20,08</t>
+          <t>-19,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,46</t>
+          <t>-11,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-22,15</t>
+          <t>-22,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-13,37</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-78,73%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-75,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-88,66%</t>
+          <t>-77,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-76,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-88,48%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-66,12%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -11,68</t>
+          <t>-29,05; -10,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -5,24</t>
+          <t>-18,47; -5,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,98; -14,43</t>
+          <t>-30,23; -14,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-24,62; -5,03</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-91,21; -54,61</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,76; -40,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-95,74; -73,47</t>
+          <t>-90,35; -53,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-90,42; -44,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-96,11; -74,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-85,68; -30,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>-13,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,26</t>
+          <t>-14,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-11,67</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-10,56</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-70,3%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-71,14%</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-78,7%</t>
+          <t>-70,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-70,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-77,98%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-67,64%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>-78,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-68,41%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -11,48</t>
+          <t>-17,16; -11,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -10,97</t>
+          <t>-15,47; -10,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -12,59</t>
+          <t>-17,51; -12,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -8,33</t>
+          <t>-14,59; -9,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,79; -61,68</t>
+          <t>-13,23; -8,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,9; -63,58</t>
+          <t>-11,4; -6,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,35; -72,05</t>
+          <t>-76,58; -61,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,04; -69,76</t>
+          <t>-77,13; -63,76</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-83,05; -72,12</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-75,59; -57,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-85,64; -69,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-78,02; -56,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P35_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,79</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,35</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,77</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-9,2</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-50,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-54,94%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-67,03%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-52,3%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-74,45%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-67,52%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.794224941961328</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.930335486121507</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-10.96500921194163</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-7.600466890034525</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-9.765292583667343</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-9.213056692564685</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5344912158212389</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5538242420167602</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.6800712557338683</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.5378488572980097</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.7444814484975669</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.676272674012772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,68; -4,37</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,36; -5,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; -7,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,46; -3,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,5; -7,07</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-12,08; -6,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-63,49; -30,79</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-66,85; -38,13</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-76,85; -54,0</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-68,32; -29,58</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-82,6; -61,55</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-76,56; -52,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.30364043107831</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.35718878368856</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.00838808229361</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.62411139035319</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-12.49532741422687</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-12.14746961492487</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6584565361809505</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6711018420079222</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.774481119202389</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6903795453334506</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.8260439148285245</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.7674786739923952</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-5.068411147479882</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-5.3318582427757</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-7.606109464757234</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-3.821353829421896</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-7.067545505111856</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-6.260214232101362</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.3497769275615923</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.3820090055208712</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.5464619551687571</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.3192577303949819</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.615508773331867</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.5296642808312944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-20,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-18,96</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-17,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-16,37</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-13,31</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-8,16</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-84,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-84,98%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-84,88%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-81,28%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-91,84%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-72,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; -15,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,45; -15,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,57; -13,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,64; -12,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-18,4; -8,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-12,72; -4,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-91,03; -75,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-90,93; -76,38</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-90,04; -76,11</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-88,38; -70,93</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-97,92; -74,68</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-89,87; -39,73</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-20.08866553790294</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-19.18332967021993</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-18.17776993661859</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-16.58987125171106</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-13.31030150167157</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-8.31516822138189</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.844690154624305</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.8499246872979752</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.8559146818460526</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.8153962354515673</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.9183902925857709</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.7362507528562574</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-19,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-11,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-22,41</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-13,37</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-77,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-76,38%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-88,48%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-66,12%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-25.85801313858519</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.83144201108299</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-22.43314566184484</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-20.96601952338843</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-18.40115302647159</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-12.81387141273568</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.9094532660771656</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.9083481511597647</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.9056269472245482</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.8830722351098961</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.979241936505447</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.898398367319861</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-29,05; -10,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,47; -5,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-30,23; -14,55</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,62; -5,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-90,35; -53,66</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-90,42; -44,56</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-96,11; -74,25</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-85,68; -30,64</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-15.48547337820161</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-15.50698363373646</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-14.29049135257138</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-12.78773525012584</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-8.645246959035392</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-4.157799409071596</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.7462712372967503</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.760922610010229</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.7732387630835466</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.7089644753032417</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>-0.746842058243366</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.4139754633136912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-14,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-14,89</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-11,67</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-10,56</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-8,92</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-70,24%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-70,92%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-77,98%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-67,64%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-78,56%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-68,41%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-20.02299883268347</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-12.11787155035787</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-22.45739815691457</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-12.81377974239133</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.7981147752631337</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7692346023597625</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.8902113147596319</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.6496066411128574</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; -11,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-15,47; -10,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; -12,46</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; -9,06</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; -8,36</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-11,4; -6,58</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-76,58; -61,95</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-77,13; -63,76</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-83,05; -72,12</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-75,59; -57,68</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-85,64; -69,57</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-78,02; -56,48</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-30.77098430581318</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.12340163561024</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-30.66858754939493</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.61132248761422</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9184415372749457</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9084471250562938</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.9639081549081684</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8506496138631749</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-11.3456973504986</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-5.954670657387575</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-15.12960270911488</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-4.590513664812078</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.5808122137114304</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.4656549516789212</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.7623177968596861</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.281830634673369</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-14.60254968709794</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-13.30153231288378</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-15.20822107409288</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-11.81554994796173</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-10.56442379428919</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-8.961964060184821</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.7145674054848266</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.7132818125578769</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.7883399367845421</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.6824036313702927</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.7856314068846522</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.6864368277009137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-17.54327790205217</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-15.62185862167528</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.0031636581658</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.76424083213088</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-13.22871057891528</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-11.44719841767614</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7787332792806176</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7737458136192954</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.8375982736617474</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7602632643823125</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.8563918491472788</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.7809401107477768</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-11.80234221821268</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-10.94957333416463</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-12.65662068524281</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-9.151222692330842</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-8.355323667982335</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-6.687168876482255</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.639262262689076</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.6393080877285849</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.7323196382474169</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.584480382747411</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.6956983357284301</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.5672123835932872</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
